--- a/Controle da pesquisa.xlsx
+++ b/Controle da pesquisa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Desktop\pesquisa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC76CA9-8870-4F64-9C01-2105A2399E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A526CD2-B6A2-41D7-8973-54FC5ECA737C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{DF8D05E7-708D-4EFC-AA27-4324DDD27F39}"/>
   </bookViews>
@@ -426,7 +426,7 @@
   <dimension ref="A1:C280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,6 +554,9 @@
       <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C11">
+        <v>757</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -562,6 +565,9 @@
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C12">
+        <v>969</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -570,6 +576,9 @@
       <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C13">
+        <v>1719</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -578,6 +587,9 @@
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C14">
+        <v>3372</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -586,6 +598,9 @@
       <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C15">
+        <v>1932</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -594,32 +609,44 @@
       <c r="B16" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>3618</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45567</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45567</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45567</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45568</v>
       </c>
@@ -627,7 +654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45568</v>
       </c>
@@ -635,7 +662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45568</v>
       </c>
@@ -643,7 +670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45568</v>
       </c>
@@ -651,7 +678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45568</v>
       </c>
@@ -659,7 +686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45568</v>
       </c>
@@ -667,7 +694,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45568</v>
       </c>
@@ -675,7 +702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45568</v>
       </c>
@@ -683,7 +710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45568</v>
       </c>
@@ -691,7 +718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45569</v>
       </c>
@@ -699,7 +726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>45569</v>
       </c>
@@ -707,7 +734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45569</v>
       </c>
@@ -715,7 +742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45569</v>
       </c>

--- a/Controle da pesquisa.xlsx
+++ b/Controle da pesquisa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Desktop\pesquisa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A526CD2-B6A2-41D7-8973-54FC5ECA737C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6778086E-8F76-41E4-B534-5181794E729D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{DF8D05E7-708D-4EFC-AA27-4324DDD27F39}"/>
+    <workbookView xWindow="270" yWindow="285" windowWidth="10935" windowHeight="10635" xr2:uid="{DF8D05E7-708D-4EFC-AA27-4324DDD27F39}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -425,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A8A4C0-971A-4AC7-A34D-905FBDF78CC8}">
   <dimension ref="A1:C280"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,6 +653,9 @@
       <c r="B20" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C20">
+        <v>1047</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -661,6 +664,9 @@
       <c r="B21" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C21">
+        <v>1117</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -669,6 +675,9 @@
       <c r="B22" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C22">
+        <v>1691</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -677,6 +686,9 @@
       <c r="B23" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C23">
+        <v>4507</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -685,6 +697,9 @@
       <c r="B24" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C24">
+        <v>1457</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -693,6 +708,9 @@
       <c r="B25" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C25">
+        <v>2074</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -701,6 +719,9 @@
       <c r="B26" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C26">
+        <v>893</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -709,6 +730,9 @@
       <c r="B27" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C27">
+        <v>1457</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -716,6 +740,9 @@
       </c>
       <c r="B28" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="C28">
+        <v>1404</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">

--- a/Controle da pesquisa.xlsx
+++ b/Controle da pesquisa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Desktop\pesquisa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6778086E-8F76-41E4-B534-5181794E729D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE4D702-B2D2-4130-89CE-AB60785B55C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="285" windowWidth="10935" windowHeight="10635" xr2:uid="{DF8D05E7-708D-4EFC-AA27-4324DDD27F39}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{DF8D05E7-708D-4EFC-AA27-4324DDD27F39}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="13">
   <si>
     <t>Data</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>tamanho (bytes)</t>
+  </si>
+  <si>
+    <t>Mixtral.txt</t>
   </si>
 </sst>
 </file>
@@ -425,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A8A4C0-971A-4AC7-A34D-905FBDF78CC8}">
   <dimension ref="A1:C280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,6 +755,9 @@
       <c r="B29" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C29">
+        <v>782</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -760,6 +766,9 @@
       <c r="B30" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C30">
+        <v>1272</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -768,6 +777,9 @@
       <c r="B31" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C31">
+        <v>1763</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -776,48 +788,66 @@
       <c r="B32" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>3809</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>45569</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="C33">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>45569</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>45569</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>45569</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>45569</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>45570</v>
       </c>
@@ -825,7 +855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>45570</v>
       </c>
@@ -833,7 +863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>45570</v>
       </c>
@@ -841,7 +871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>45570</v>
       </c>
@@ -849,15 +879,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>45570</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>45570</v>
       </c>
@@ -865,7 +895,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>45570</v>
       </c>
@@ -873,7 +903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45570</v>
       </c>
@@ -881,7 +911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45570</v>
       </c>
@@ -889,7 +919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45571</v>
       </c>
@@ -897,7 +927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45571</v>
       </c>
@@ -926,7 +956,7 @@
         <v>45571</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -998,7 +1028,7 @@
         <v>45572</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1070,7 +1100,7 @@
         <v>45573</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1142,7 +1172,7 @@
         <v>45574</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1214,7 +1244,7 @@
         <v>45575</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1286,7 +1316,7 @@
         <v>45576</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1358,7 +1388,7 @@
         <v>45577</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1430,7 +1460,7 @@
         <v>45578</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -1502,7 +1532,7 @@
         <v>45579</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -1574,7 +1604,7 @@
         <v>45580</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -1646,7 +1676,7 @@
         <v>45581</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -1718,7 +1748,7 @@
         <v>45582</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -1790,7 +1820,7 @@
         <v>45583</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -1862,7 +1892,7 @@
         <v>45584</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -1934,7 +1964,7 @@
         <v>45585</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -2006,7 +2036,7 @@
         <v>45586</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -2078,7 +2108,7 @@
         <v>45587</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -2150,7 +2180,7 @@
         <v>45588</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -2222,7 +2252,7 @@
         <v>45589</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -2294,7 +2324,7 @@
         <v>45590</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -2366,7 +2396,7 @@
         <v>45591</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -2438,7 +2468,7 @@
         <v>45592</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -2510,7 +2540,7 @@
         <v>45593</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -2582,7 +2612,7 @@
         <v>45594</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -2654,7 +2684,7 @@
         <v>45595</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -2726,7 +2756,7 @@
         <v>45596</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">

--- a/Controle da pesquisa.xlsx
+++ b/Controle da pesquisa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Desktop\pesquisa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE4D702-B2D2-4130-89CE-AB60785B55C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEBF6D5-557F-45C7-9FA1-3C732A346EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{DF8D05E7-708D-4EFC-AA27-4324DDD27F39}"/>
+    <workbookView xWindow="270" yWindow="285" windowWidth="10935" windowHeight="10635" xr2:uid="{DF8D05E7-708D-4EFC-AA27-4324DDD27F39}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="14">
   <si>
     <t>Data</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Mixtral.txt</t>
+  </si>
+  <si>
+    <t>Mistral.txt</t>
   </si>
 </sst>
 </file>
@@ -428,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A8A4C0-971A-4AC7-A34D-905FBDF78CC8}">
   <dimension ref="A1:C280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,6 +857,9 @@
       <c r="B38" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C38">
+        <v>800</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -862,6 +868,9 @@
       <c r="B39" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C39">
+        <v>957</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
@@ -870,6 +879,9 @@
       <c r="B40" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C40">
+        <v>1772</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
@@ -878,13 +890,19 @@
       <c r="B41" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C41">
+        <v>3920</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>45570</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="C42">
+        <v>2061</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -892,7 +910,10 @@
         <v>45570</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>771</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -900,7 +921,10 @@
         <v>45570</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="C44">
+        <v>1560</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -910,6 +934,9 @@
       <c r="B45" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C45">
+        <v>1614</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
@@ -918,6 +945,9 @@
       <c r="B46" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C46">
+        <v>1642</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
@@ -956,7 +986,7 @@
         <v>45571</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -964,7 +994,7 @@
         <v>45571</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -972,7 +1002,7 @@
         <v>45571</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1028,7 +1058,7 @@
         <v>45572</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1036,7 +1066,7 @@
         <v>45572</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1044,7 +1074,7 @@
         <v>45572</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1100,7 +1130,7 @@
         <v>45573</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1108,7 +1138,7 @@
         <v>45573</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1116,7 +1146,7 @@
         <v>45573</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1172,7 +1202,7 @@
         <v>45574</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1180,7 +1210,7 @@
         <v>45574</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1188,7 +1218,7 @@
         <v>45574</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1244,7 +1274,7 @@
         <v>45575</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1252,7 +1282,7 @@
         <v>45575</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1260,7 +1290,7 @@
         <v>45575</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1316,7 +1346,7 @@
         <v>45576</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1324,7 +1354,7 @@
         <v>45576</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1332,7 +1362,7 @@
         <v>45576</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1388,7 +1418,7 @@
         <v>45577</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1396,7 +1426,7 @@
         <v>45577</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1404,7 +1434,7 @@
         <v>45577</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1460,7 +1490,7 @@
         <v>45578</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -1468,7 +1498,7 @@
         <v>45578</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1476,7 +1506,7 @@
         <v>45578</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -1532,7 +1562,7 @@
         <v>45579</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -1540,7 +1570,7 @@
         <v>45579</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -1548,7 +1578,7 @@
         <v>45579</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -1604,7 +1634,7 @@
         <v>45580</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -1612,7 +1642,7 @@
         <v>45580</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -1620,7 +1650,7 @@
         <v>45580</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -1676,7 +1706,7 @@
         <v>45581</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -1684,7 +1714,7 @@
         <v>45581</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -1692,7 +1722,7 @@
         <v>45581</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -1748,7 +1778,7 @@
         <v>45582</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -1756,7 +1786,7 @@
         <v>45582</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -1764,7 +1794,7 @@
         <v>45582</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -1820,7 +1850,7 @@
         <v>45583</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -1828,7 +1858,7 @@
         <v>45583</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -1836,7 +1866,7 @@
         <v>45583</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -1892,7 +1922,7 @@
         <v>45584</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -1900,7 +1930,7 @@
         <v>45584</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -1908,7 +1938,7 @@
         <v>45584</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -1964,7 +1994,7 @@
         <v>45585</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -1972,7 +2002,7 @@
         <v>45585</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -1980,7 +2010,7 @@
         <v>45585</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -2036,7 +2066,7 @@
         <v>45586</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -2044,7 +2074,7 @@
         <v>45586</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -2052,7 +2082,7 @@
         <v>45586</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -2108,7 +2138,7 @@
         <v>45587</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -2116,7 +2146,7 @@
         <v>45587</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -2124,7 +2154,7 @@
         <v>45587</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -2180,7 +2210,7 @@
         <v>45588</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -2188,7 +2218,7 @@
         <v>45588</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -2196,7 +2226,7 @@
         <v>45588</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -2252,7 +2282,7 @@
         <v>45589</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -2260,7 +2290,7 @@
         <v>45589</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -2268,7 +2298,7 @@
         <v>45589</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -2324,7 +2354,7 @@
         <v>45590</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -2332,7 +2362,7 @@
         <v>45590</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -2340,7 +2370,7 @@
         <v>45590</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -2396,7 +2426,7 @@
         <v>45591</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -2404,7 +2434,7 @@
         <v>45591</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -2412,7 +2442,7 @@
         <v>45591</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -2468,7 +2498,7 @@
         <v>45592</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -2476,7 +2506,7 @@
         <v>45592</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -2484,7 +2514,7 @@
         <v>45592</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -2540,7 +2570,7 @@
         <v>45593</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -2548,7 +2578,7 @@
         <v>45593</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -2556,7 +2586,7 @@
         <v>45593</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -2612,7 +2642,7 @@
         <v>45594</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -2620,7 +2650,7 @@
         <v>45594</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -2628,7 +2658,7 @@
         <v>45594</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -2684,7 +2714,7 @@
         <v>45595</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -2692,7 +2722,7 @@
         <v>45595</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -2700,7 +2730,7 @@
         <v>45595</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -2756,7 +2786,7 @@
         <v>45596</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -2764,7 +2794,7 @@
         <v>45596</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -2772,7 +2802,7 @@
         <v>45596</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">

--- a/Controle da pesquisa.xlsx
+++ b/Controle da pesquisa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Desktop\pesquisa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEBF6D5-557F-45C7-9FA1-3C732A346EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307F0880-4AEE-4849-ADBC-5162E0DE8F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="270" yWindow="285" windowWidth="10935" windowHeight="10635" xr2:uid="{DF8D05E7-708D-4EFC-AA27-4324DDD27F39}"/>
   </bookViews>
@@ -432,7 +432,7 @@
   <dimension ref="A1:C280"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -956,6 +956,9 @@
       <c r="B47" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C47">
+        <v>801</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
@@ -964,64 +967,88 @@
       <c r="B48" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>45571</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>45571</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>45571</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>45571</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>45571</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>45571</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>45571</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>45572</v>
       </c>
@@ -1029,7 +1056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>45572</v>
       </c>
@@ -1037,7 +1064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>45572</v>
       </c>
@@ -1045,7 +1072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>45572</v>
       </c>
@@ -1053,7 +1080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>45572</v>
       </c>
@@ -1061,7 +1088,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>45572</v>
       </c>
@@ -1069,7 +1096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>45572</v>
       </c>
@@ -1077,7 +1104,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>45572</v>
       </c>
@@ -1085,7 +1112,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>45572</v>
       </c>

--- a/Controle da pesquisa.xlsx
+++ b/Controle da pesquisa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Desktop\pesquisa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307F0880-4AEE-4849-ADBC-5162E0DE8F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A456D9E4-1C27-44D9-99F4-ADC1EA5DA376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="270" yWindow="285" windowWidth="10935" windowHeight="10635" xr2:uid="{DF8D05E7-708D-4EFC-AA27-4324DDD27F39}"/>
   </bookViews>
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A8A4C0-971A-4AC7-A34D-905FBDF78CC8}">
   <dimension ref="A1:C280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,6 +1055,9 @@
       <c r="B56" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C56">
+        <v>801</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
@@ -1063,6 +1066,9 @@
       <c r="B57" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C57">
+        <v>972</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
@@ -1071,6 +1077,9 @@
       <c r="B58" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C58">
+        <v>1715</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
@@ -1079,6 +1088,9 @@
       <c r="B59" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C59">
+        <v>3464</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
@@ -1087,6 +1099,9 @@
       <c r="B60" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C60">
+        <v>1830</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
@@ -1095,6 +1110,9 @@
       <c r="B61" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C61">
+        <v>1011</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
@@ -1103,6 +1121,9 @@
       <c r="B62" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="C62">
+        <v>1615</v>
+      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
@@ -1111,6 +1132,9 @@
       <c r="B63" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C63">
+        <v>1712</v>
+      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
@@ -1118,6 +1142,9 @@
       </c>
       <c r="B64" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="C64">
+        <v>1462</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">

--- a/Controle da pesquisa.xlsx
+++ b/Controle da pesquisa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Desktop\pesquisa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A456D9E4-1C27-44D9-99F4-ADC1EA5DA376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B49EA25-6282-4145-9DCF-9457D8A1A8F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="270" yWindow="285" windowWidth="10935" windowHeight="10635" xr2:uid="{DF8D05E7-708D-4EFC-AA27-4324DDD27F39}"/>
   </bookViews>
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A8A4C0-971A-4AC7-A34D-905FBDF78CC8}">
   <dimension ref="A1:C280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1147,79 +1147,106 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>45573</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45573</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>45573</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>45573</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>3889</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>45573</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>45573</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>45573</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>45573</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>45573</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>45574</v>
       </c>
@@ -1227,7 +1254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>45574</v>
       </c>
@@ -1235,7 +1262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>45574</v>
       </c>
@@ -1243,7 +1270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>45574</v>
       </c>
@@ -1251,7 +1278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>45574</v>
       </c>
@@ -1259,7 +1286,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>45574</v>
       </c>
@@ -1267,7 +1294,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>45574</v>
       </c>

--- a/Controle da pesquisa.xlsx
+++ b/Controle da pesquisa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Desktop\pesquisa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B49EA25-6282-4145-9DCF-9457D8A1A8F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DDD724-D8F4-4531-84D0-7866080B4204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="270" yWindow="285" windowWidth="10935" windowHeight="10635" xr2:uid="{DF8D05E7-708D-4EFC-AA27-4324DDD27F39}"/>
   </bookViews>
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A8A4C0-971A-4AC7-A34D-905FBDF78CC8}">
   <dimension ref="A1:C280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1253,6 +1253,9 @@
       <c r="B74" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C74">
+        <v>720</v>
+      </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
@@ -1261,6 +1264,9 @@
       <c r="B75" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C75">
+        <v>932</v>
+      </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
@@ -1269,6 +1275,9 @@
       <c r="B76" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C76">
+        <v>1715</v>
+      </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
@@ -1277,6 +1286,9 @@
       <c r="B77" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C77">
+        <v>4409</v>
+      </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
@@ -1285,6 +1297,9 @@
       <c r="B78" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C78">
+        <v>2802</v>
+      </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
@@ -1293,6 +1308,9 @@
       <c r="B79" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C79">
+        <v>997</v>
+      </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
@@ -1301,24 +1319,33 @@
       <c r="B80" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>45574</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>45574</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>45575</v>
       </c>
@@ -1326,7 +1353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>45575</v>
       </c>
@@ -1334,7 +1361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>45575</v>
       </c>
@@ -1342,7 +1369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>45575</v>
       </c>
@@ -1350,7 +1377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>45575</v>
       </c>
@@ -1358,7 +1385,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>45575</v>
       </c>
@@ -1366,7 +1393,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>45575</v>
       </c>
@@ -1374,7 +1401,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>45575</v>
       </c>
@@ -1382,7 +1409,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>45575</v>
       </c>
@@ -1390,7 +1417,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>45576</v>
       </c>
@@ -1398,7 +1425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>45576</v>
       </c>
@@ -1406,7 +1433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>45576</v>
       </c>
@@ -1414,7 +1441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>45576</v>
       </c>
@@ -1422,7 +1449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>45576</v>
       </c>

--- a/Controle da pesquisa.xlsx
+++ b/Controle da pesquisa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Desktop\pesquisa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DDD724-D8F4-4531-84D0-7866080B4204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1338DC36-542C-4F33-81AD-12795ACCCC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="270" yWindow="285" windowWidth="10935" windowHeight="10635" xr2:uid="{DF8D05E7-708D-4EFC-AA27-4324DDD27F39}"/>
   </bookViews>
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A8A4C0-971A-4AC7-A34D-905FBDF78CC8}">
   <dimension ref="A1:C280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1352,6 +1352,9 @@
       <c r="B83" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C83">
+        <v>877</v>
+      </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
@@ -1360,6 +1363,9 @@
       <c r="B84" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C84">
+        <v>1031</v>
+      </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
@@ -1368,6 +1374,9 @@
       <c r="B85" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C85">
+        <v>1708</v>
+      </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
@@ -1376,6 +1385,9 @@
       <c r="B86" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C86">
+        <v>4069</v>
+      </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
@@ -1384,6 +1396,9 @@
       <c r="B87" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C87">
+        <v>1764</v>
+      </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
@@ -1392,6 +1407,9 @@
       <c r="B88" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C88">
+        <v>900</v>
+      </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
@@ -1400,6 +1418,9 @@
       <c r="B89" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="C89">
+        <v>1453</v>
+      </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
@@ -1408,6 +1429,9 @@
       <c r="B90" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C90">
+        <v>1363</v>
+      </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
@@ -1415,6 +1439,9 @@
       </c>
       <c r="B91" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="C91">
+        <v>1569</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">

--- a/Controle da pesquisa.xlsx
+++ b/Controle da pesquisa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Desktop\pesquisa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1338DC36-542C-4F33-81AD-12795ACCCC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632EBFBD-6E3C-48DA-87E9-F7FE5CB08FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="285" windowWidth="10935" windowHeight="10635" xr2:uid="{DF8D05E7-708D-4EFC-AA27-4324DDD27F39}"/>
+    <workbookView xWindow="615" yWindow="630" windowWidth="10935" windowHeight="10635" xr2:uid="{DF8D05E7-708D-4EFC-AA27-4324DDD27F39}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -432,7 +432,7 @@
   <dimension ref="A1:C280"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1451,6 +1451,9 @@
       <c r="B92" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C92">
+        <v>1071</v>
+      </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
@@ -1459,6 +1462,9 @@
       <c r="B93" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C93">
+        <v>1340</v>
+      </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
@@ -1467,6 +1473,9 @@
       <c r="B94" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C94">
+        <v>1705</v>
+      </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
@@ -1475,6 +1484,9 @@
       <c r="B95" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C95">
+        <v>3909</v>
+      </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
@@ -1483,40 +1495,55 @@
       <c r="B96" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>45576</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>45576</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>45576</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>45576</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>45577</v>
       </c>
@@ -1524,7 +1551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>45577</v>
       </c>
@@ -1532,7 +1559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>45577</v>
       </c>
@@ -1540,7 +1567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>45577</v>
       </c>
@@ -1548,7 +1575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>45577</v>
       </c>
@@ -1556,7 +1583,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>45577</v>
       </c>
@@ -1564,7 +1591,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>45577</v>
       </c>
@@ -1572,7 +1599,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>45577</v>
       </c>
@@ -1580,7 +1607,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>45577</v>
       </c>
@@ -1588,7 +1615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>45578</v>
       </c>
@@ -1596,7 +1623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>45578</v>
       </c>
@@ -1604,7 +1631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>45578</v>
       </c>

--- a/Controle da pesquisa.xlsx
+++ b/Controle da pesquisa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Desktop\pesquisa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632EBFBD-6E3C-48DA-87E9-F7FE5CB08FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BD284C-0E54-4CCA-A544-F2A5798E87BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="615" yWindow="630" windowWidth="10935" windowHeight="10635" xr2:uid="{DF8D05E7-708D-4EFC-AA27-4324DDD27F39}"/>
   </bookViews>
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A8A4C0-971A-4AC7-A34D-905FBDF78CC8}">
   <dimension ref="A1:C280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1550,6 +1550,9 @@
       <c r="B101" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C101">
+        <v>603</v>
+      </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
@@ -1558,6 +1561,9 @@
       <c r="B102" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C102">
+        <v>985</v>
+      </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
@@ -1566,6 +1572,9 @@
       <c r="B103" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C103">
+        <v>801</v>
+      </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
@@ -1574,6 +1583,9 @@
       <c r="B104" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C104">
+        <v>4227</v>
+      </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
@@ -1582,6 +1594,9 @@
       <c r="B105" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C105">
+        <v>1780</v>
+      </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
@@ -1590,6 +1605,9 @@
       <c r="B106" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C106">
+        <v>1034</v>
+      </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
@@ -1598,6 +1616,9 @@
       <c r="B107" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="C107">
+        <v>2209</v>
+      </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
@@ -1606,6 +1627,9 @@
       <c r="B108" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C108">
+        <v>1823</v>
+      </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
@@ -1613,6 +1637,9 @@
       </c>
       <c r="B109" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="C109">
+        <v>1470</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">

--- a/Controle da pesquisa.xlsx
+++ b/Controle da pesquisa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Desktop\pesquisa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BD284C-0E54-4CCA-A544-F2A5798E87BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F32194-2B05-485E-8049-5ACA7740AB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="615" yWindow="630" windowWidth="10935" windowHeight="10635" xr2:uid="{DF8D05E7-708D-4EFC-AA27-4324DDD27F39}"/>
   </bookViews>
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A8A4C0-971A-4AC7-A34D-905FBDF78CC8}">
   <dimension ref="A1:C280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1649,6 +1649,9 @@
       <c r="B110" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C110">
+        <v>1106</v>
+      </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
@@ -1657,6 +1660,9 @@
       <c r="B111" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C111">
+        <v>994</v>
+      </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
@@ -1665,56 +1671,77 @@
       <c r="B112" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C112">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>45578</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C113">
+        <v>3476</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>45578</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C114">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>45578</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C115">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>45578</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C116">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>45578</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C117">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>45578</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C118">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>45579</v>
       </c>
@@ -1722,7 +1749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>45579</v>
       </c>
@@ -1730,7 +1757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>45579</v>
       </c>
@@ -1738,7 +1765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>45579</v>
       </c>
@@ -1746,7 +1773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>45579</v>
       </c>
@@ -1754,7 +1781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>45579</v>
       </c>
@@ -1762,7 +1789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>45579</v>
       </c>
@@ -1770,7 +1797,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>45579</v>
       </c>
@@ -1778,7 +1805,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>45579</v>
       </c>
@@ -1786,7 +1813,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>45580</v>
       </c>

--- a/Controle da pesquisa.xlsx
+++ b/Controle da pesquisa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Desktop\pesquisa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F32194-2B05-485E-8049-5ACA7740AB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6ADDEB1-D9D0-4D8B-8461-F52F0EFA0948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="615" yWindow="630" windowWidth="10935" windowHeight="10635" xr2:uid="{DF8D05E7-708D-4EFC-AA27-4324DDD27F39}"/>
   </bookViews>
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A8A4C0-971A-4AC7-A34D-905FBDF78CC8}">
   <dimension ref="A1:C280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="C119" sqref="C119"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1748,6 +1748,9 @@
       <c r="B119" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C119">
+        <v>828</v>
+      </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
@@ -1756,6 +1759,9 @@
       <c r="B120" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C120">
+        <v>1135</v>
+      </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
@@ -1764,6 +1770,9 @@
       <c r="B121" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C121">
+        <v>526</v>
+      </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
@@ -1772,6 +1781,9 @@
       <c r="B122" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C122">
+        <v>4222</v>
+      </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
@@ -1780,6 +1792,9 @@
       <c r="B123" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C123">
+        <v>2126</v>
+      </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
@@ -1788,6 +1803,9 @@
       <c r="B124" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C124">
+        <v>1113</v>
+      </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
@@ -1796,6 +1814,9 @@
       <c r="B125" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="C125">
+        <v>1236</v>
+      </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
@@ -1804,6 +1825,9 @@
       <c r="B126" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C126">
+        <v>2199</v>
+      </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
@@ -1811,6 +1835,9 @@
       </c>
       <c r="B127" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="C127">
+        <v>1516</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">

--- a/Controle da pesquisa.xlsx
+++ b/Controle da pesquisa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Desktop\pesquisa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6ADDEB1-D9D0-4D8B-8461-F52F0EFA0948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512DE1D5-AEC1-48DE-8224-54621022C3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="615" yWindow="630" windowWidth="10935" windowHeight="10635" xr2:uid="{DF8D05E7-708D-4EFC-AA27-4324DDD27F39}"/>
   </bookViews>
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A8A4C0-971A-4AC7-A34D-905FBDF78CC8}">
   <dimension ref="A1:C280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="C128" sqref="C128"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1847,72 +1847,99 @@
       <c r="B128" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C128">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>45580</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C129">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>45580</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C130">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>45580</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C131">
+        <v>3969</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>45580</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C132">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>45580</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C133">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>45580</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C134">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>45580</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C135">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>45580</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C136">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>45581</v>
       </c>
@@ -1920,7 +1947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>45581</v>
       </c>
@@ -1928,7 +1955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>45581</v>
       </c>
@@ -1936,7 +1963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>45581</v>
       </c>
@@ -1944,7 +1971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>45581</v>
       </c>
@@ -1952,7 +1979,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>45581</v>
       </c>
@@ -1960,7 +1987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>45581</v>
       </c>
@@ -1968,7 +1995,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>45581</v>
       </c>

--- a/Controle da pesquisa.xlsx
+++ b/Controle da pesquisa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Desktop\pesquisa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512DE1D5-AEC1-48DE-8224-54621022C3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0793C0DD-A3CC-4128-8D59-CDC0C919B95F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="615" yWindow="630" windowWidth="10935" windowHeight="10635" xr2:uid="{DF8D05E7-708D-4EFC-AA27-4324DDD27F39}"/>
   </bookViews>
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A8A4C0-971A-4AC7-A34D-905FBDF78CC8}">
   <dimension ref="A1:C280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="C137" sqref="C137"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1946,6 +1946,9 @@
       <c r="B137" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C137">
+        <v>775</v>
+      </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
@@ -1954,6 +1957,9 @@
       <c r="B138" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C138">
+        <v>1221</v>
+      </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
@@ -1962,6 +1968,9 @@
       <c r="B139" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C139">
+        <v>664</v>
+      </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
@@ -1970,6 +1979,9 @@
       <c r="B140" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C140">
+        <v>4069</v>
+      </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
@@ -1978,6 +1990,9 @@
       <c r="B141" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C141">
+        <v>2778</v>
+      </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
@@ -1986,6 +2001,9 @@
       <c r="B142" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C142">
+        <v>1016</v>
+      </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
@@ -1994,6 +2012,9 @@
       <c r="B143" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="C143">
+        <v>1189</v>
+      </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
@@ -2002,16 +2023,22 @@
       <c r="B144" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C144">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>45581</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C145">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>45582</v>
       </c>
@@ -2019,7 +2046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>45582</v>
       </c>
@@ -2027,7 +2054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>45582</v>
       </c>
@@ -2035,7 +2062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>45582</v>
       </c>
@@ -2043,7 +2070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>45582</v>
       </c>
@@ -2051,7 +2078,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>45582</v>
       </c>
@@ -2059,7 +2086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>45582</v>
       </c>
@@ -2067,7 +2094,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>45582</v>
       </c>
@@ -2075,7 +2102,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>45582</v>
       </c>
@@ -2083,7 +2110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>45583</v>
       </c>
@@ -2091,7 +2118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>45583</v>
       </c>
@@ -2099,7 +2126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>45583</v>
       </c>
@@ -2107,7 +2134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>45583</v>
       </c>
@@ -2115,7 +2142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>45583</v>
       </c>
@@ -2123,7 +2150,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>45583</v>
       </c>

--- a/Controle da pesquisa.xlsx
+++ b/Controle da pesquisa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Desktop\pesquisa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0793C0DD-A3CC-4128-8D59-CDC0C919B95F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97928A81-6789-410B-A8BD-62F77FF4FBFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="615" yWindow="630" windowWidth="10935" windowHeight="10635" xr2:uid="{DF8D05E7-708D-4EFC-AA27-4324DDD27F39}"/>
   </bookViews>
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A8A4C0-971A-4AC7-A34D-905FBDF78CC8}">
   <dimension ref="A1:C280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="C146" sqref="C146"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="C155" sqref="C155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2045,6 +2045,9 @@
       <c r="B146" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C146">
+        <v>958</v>
+      </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
@@ -2053,6 +2056,9 @@
       <c r="B147" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C147">
+        <v>1140</v>
+      </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
@@ -2061,6 +2067,9 @@
       <c r="B148" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C148">
+        <v>517</v>
+      </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
@@ -2069,6 +2078,9 @@
       <c r="B149" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C149">
+        <v>3710</v>
+      </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
@@ -2077,6 +2089,9 @@
       <c r="B150" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C150">
+        <v>3487</v>
+      </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
@@ -2085,6 +2100,9 @@
       <c r="B151" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C151">
+        <v>1171</v>
+      </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
@@ -2093,6 +2111,9 @@
       <c r="B152" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="C152">
+        <v>1461</v>
+      </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
@@ -2101,6 +2122,9 @@
       <c r="B153" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C153">
+        <v>1472</v>
+      </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
@@ -2108,6 +2132,9 @@
       </c>
       <c r="B154" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="C154">
+        <v>1598</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">

--- a/Controle da pesquisa.xlsx
+++ b/Controle da pesquisa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Desktop\pesquisa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97928A81-6789-410B-A8BD-62F77FF4FBFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6909A956-BC65-4A4A-BDD3-B9EE9457AA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="615" yWindow="630" windowWidth="10935" windowHeight="10635" xr2:uid="{DF8D05E7-708D-4EFC-AA27-4324DDD27F39}"/>
+    <workbookView xWindow="270" yWindow="645" windowWidth="10935" windowHeight="10635" xr2:uid="{DF8D05E7-708D-4EFC-AA27-4324DDD27F39}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -432,7 +432,7 @@
   <dimension ref="A1:C280"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="C155" sqref="C155"/>
+      <selection activeCell="C164" sqref="C164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2144,6 +2144,9 @@
       <c r="B155" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C155">
+        <v>819</v>
+      </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
@@ -2152,6 +2155,9 @@
       <c r="B156" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C156">
+        <v>1074</v>
+      </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
@@ -2160,6 +2166,9 @@
       <c r="B157" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C157">
+        <v>397</v>
+      </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
@@ -2168,6 +2177,9 @@
       <c r="B158" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C158">
+        <v>3990</v>
+      </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
@@ -2176,6 +2188,9 @@
       <c r="B159" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C159">
+        <v>2075</v>
+      </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
@@ -2184,32 +2199,44 @@
       <c r="B160" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C160">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>45583</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C161">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>45583</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C162">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>45583</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C163">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>45584</v>
       </c>
@@ -2217,7 +2244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>45584</v>
       </c>
@@ -2225,7 +2252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>45584</v>
       </c>
@@ -2233,7 +2260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>45584</v>
       </c>
@@ -2241,7 +2268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>45584</v>
       </c>
@@ -2249,7 +2276,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>45584</v>
       </c>
@@ -2257,7 +2284,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>45584</v>
       </c>
@@ -2265,7 +2292,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>45584</v>
       </c>
@@ -2273,7 +2300,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>45584</v>
       </c>
@@ -2281,7 +2308,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>45585</v>
       </c>
@@ -2289,7 +2316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>45585</v>
       </c>
@@ -2297,7 +2324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>45585</v>
       </c>
@@ -2305,7 +2332,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>45585</v>
       </c>

--- a/Controle da pesquisa.xlsx
+++ b/Controle da pesquisa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Desktop\pesquisa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6909A956-BC65-4A4A-BDD3-B9EE9457AA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DB876E-5E92-4824-B196-BADE5F71E3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="270" yWindow="645" windowWidth="10935" windowHeight="10635" xr2:uid="{DF8D05E7-708D-4EFC-AA27-4324DDD27F39}"/>
   </bookViews>
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A8A4C0-971A-4AC7-A34D-905FBDF78CC8}">
   <dimension ref="A1:C280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="C164" sqref="C164"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="C173" sqref="C173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2243,6 +2243,9 @@
       <c r="B164" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C164">
+        <v>605</v>
+      </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
@@ -2251,6 +2254,9 @@
       <c r="B165" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C165">
+        <v>1195</v>
+      </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
@@ -2259,6 +2265,9 @@
       <c r="B166" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C166">
+        <v>456</v>
+      </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
@@ -2267,6 +2276,9 @@
       <c r="B167" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C167">
+        <v>4016</v>
+      </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
@@ -2275,6 +2287,9 @@
       <c r="B168" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C168">
+        <v>2084</v>
+      </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
@@ -2283,6 +2298,9 @@
       <c r="B169" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C169">
+        <v>1143</v>
+      </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
@@ -2291,6 +2309,9 @@
       <c r="B170" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="C170">
+        <v>1467</v>
+      </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
@@ -2299,6 +2320,9 @@
       <c r="B171" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C171">
+        <v>2344</v>
+      </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
@@ -2306,6 +2330,9 @@
       </c>
       <c r="B172" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="C172">
+        <v>926</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">

--- a/Controle da pesquisa.xlsx
+++ b/Controle da pesquisa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Desktop\pesquisa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DB876E-5E92-4824-B196-BADE5F71E3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81171937-25C6-4D3C-93AB-15B01072B0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="270" yWindow="645" windowWidth="10935" windowHeight="10635" xr2:uid="{DF8D05E7-708D-4EFC-AA27-4324DDD27F39}"/>
   </bookViews>
@@ -432,7 +432,7 @@
   <dimension ref="A1:C280"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="C173" sqref="C173"/>
+      <selection activeCell="C182" sqref="C182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2342,6 +2342,9 @@
       <c r="B173" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C173">
+        <v>588</v>
+      </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
@@ -2350,6 +2353,9 @@
       <c r="B174" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C174">
+        <v>1167</v>
+      </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
@@ -2358,6 +2364,9 @@
       <c r="B175" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C175">
+        <v>487</v>
+      </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
@@ -2366,48 +2375,66 @@
       <c r="B176" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C176">
+        <v>3919</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>45585</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C177">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>45585</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C178">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>45585</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C179">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>45585</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C180">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>45585</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C181">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>45586</v>
       </c>
@@ -2415,7 +2442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>45586</v>
       </c>
@@ -2423,7 +2450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>45586</v>
       </c>
@@ -2431,7 +2458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>45586</v>
       </c>
@@ -2439,7 +2466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>45586</v>
       </c>
@@ -2447,7 +2474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>45586</v>
       </c>
@@ -2455,7 +2482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>45586</v>
       </c>
@@ -2463,7 +2490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>45586</v>
       </c>
@@ -2471,7 +2498,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>45586</v>
       </c>
@@ -2479,7 +2506,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>45587</v>
       </c>
@@ -2487,7 +2514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>45587</v>
       </c>

--- a/Controle da pesquisa.xlsx
+++ b/Controle da pesquisa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Desktop\pesquisa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81171937-25C6-4D3C-93AB-15B01072B0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6120168-955F-4BCA-ACF9-E689FB598F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="270" yWindow="645" windowWidth="10935" windowHeight="10635" xr2:uid="{DF8D05E7-708D-4EFC-AA27-4324DDD27F39}"/>
   </bookViews>
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A8A4C0-971A-4AC7-A34D-905FBDF78CC8}">
   <dimension ref="A1:C280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="C182" sqref="C182"/>
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="C187" sqref="C187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2441,6 +2441,9 @@
       <c r="B182" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C182">
+        <v>534</v>
+      </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
@@ -2449,6 +2452,9 @@
       <c r="B183" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C183">
+        <v>1217</v>
+      </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
@@ -2457,6 +2463,9 @@
       <c r="B184" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C184">
+        <v>558</v>
+      </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
@@ -2465,6 +2474,9 @@
       <c r="B185" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C185">
+        <v>4015</v>
+      </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
@@ -2473,6 +2485,9 @@
       <c r="B186" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C186">
+        <v>3829</v>
+      </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
@@ -2481,6 +2496,9 @@
       <c r="B187" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C187">
+        <v>870</v>
+      </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
@@ -2489,6 +2507,9 @@
       <c r="B188" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="C188">
+        <v>1665</v>
+      </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
@@ -2497,6 +2518,9 @@
       <c r="B189" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C189">
+        <v>1252</v>
+      </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
@@ -2504,6 +2528,9 @@
       </c>
       <c r="B190" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="C190">
+        <v>1595</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">

--- a/Controle da pesquisa.xlsx
+++ b/Controle da pesquisa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Desktop\pesquisa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6120168-955F-4BCA-ACF9-E689FB598F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65412D33-10B8-4597-A89B-AE53E30F5CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="270" yWindow="645" windowWidth="10935" windowHeight="10635" xr2:uid="{DF8D05E7-708D-4EFC-AA27-4324DDD27F39}"/>
   </bookViews>
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A8A4C0-971A-4AC7-A34D-905FBDF78CC8}">
   <dimension ref="A1:C280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="C187" sqref="C187"/>
+    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="C200" sqref="C200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2540,6 +2540,9 @@
       <c r="B191" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C191">
+        <v>729</v>
+      </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
@@ -2548,64 +2551,88 @@
       <c r="B192" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C192">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>45587</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C193">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>45587</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C194">
+        <v>3548</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>45587</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C195">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>45587</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C196">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>45587</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C197">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>45587</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C198">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>45587</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C199">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>45588</v>
       </c>
@@ -2613,7 +2640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>45588</v>
       </c>
@@ -2621,7 +2648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>45588</v>
       </c>
@@ -2629,7 +2656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>45588</v>
       </c>
@@ -2637,7 +2664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>45588</v>
       </c>
@@ -2645,7 +2672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>45588</v>
       </c>
@@ -2653,7 +2680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>45588</v>
       </c>
@@ -2661,7 +2688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>45588</v>
       </c>
@@ -2669,7 +2696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>45588</v>
       </c>

--- a/Controle da pesquisa.xlsx
+++ b/Controle da pesquisa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Desktop\pesquisa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65412D33-10B8-4597-A89B-AE53E30F5CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3141CC3D-96E0-445C-B8E5-7598C5388CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="270" yWindow="645" windowWidth="10935" windowHeight="10635" xr2:uid="{DF8D05E7-708D-4EFC-AA27-4324DDD27F39}"/>
   </bookViews>
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A8A4C0-971A-4AC7-A34D-905FBDF78CC8}">
   <dimension ref="A1:C280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="C200" sqref="C200"/>
+    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="C209" sqref="C209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2639,6 +2639,9 @@
       <c r="B200" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C200">
+        <v>509</v>
+      </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
@@ -2647,6 +2650,9 @@
       <c r="B201" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C201">
+        <v>2831</v>
+      </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
@@ -2655,6 +2661,9 @@
       <c r="B202" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C202">
+        <v>668</v>
+      </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
@@ -2663,6 +2672,9 @@
       <c r="B203" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C203">
+        <v>4071</v>
+      </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
@@ -2671,6 +2683,9 @@
       <c r="B204" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C204">
+        <v>2351</v>
+      </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
@@ -2679,6 +2694,9 @@
       <c r="B205" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C205">
+        <v>1376</v>
+      </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
@@ -2687,6 +2705,9 @@
       <c r="B206" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="C206">
+        <v>1408</v>
+      </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
@@ -2695,6 +2716,9 @@
       <c r="B207" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C207">
+        <v>1181</v>
+      </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
@@ -2702,6 +2726,9 @@
       </c>
       <c r="B208" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="C208">
+        <v>1570</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">

--- a/Controle da pesquisa.xlsx
+++ b/Controle da pesquisa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Desktop\pesquisa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3141CC3D-96E0-445C-B8E5-7598C5388CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBFB442-C031-44D3-804B-DD7FF8CC5D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="270" yWindow="645" windowWidth="10935" windowHeight="10635" xr2:uid="{DF8D05E7-708D-4EFC-AA27-4324DDD27F39}"/>
   </bookViews>
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A8A4C0-971A-4AC7-A34D-905FBDF78CC8}">
   <dimension ref="A1:C280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="C209" sqref="C209"/>
+    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
+      <selection activeCell="C218" sqref="C218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2731,79 +2731,106 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>45589</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C209">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>45589</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C210">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>45589</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C211">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>45589</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C212">
+        <v>4785</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>45589</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C213">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>45589</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C214">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>45589</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C215">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>45589</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C216">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>45589</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C217">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>45590</v>
       </c>
@@ -2811,7 +2838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>45590</v>
       </c>
@@ -2819,7 +2846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>45590</v>
       </c>
@@ -2827,7 +2854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>45590</v>
       </c>
@@ -2835,7 +2862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>45590</v>
       </c>
@@ -2843,7 +2870,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>45590</v>
       </c>
@@ -2851,7 +2878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>45590</v>
       </c>

--- a/Controle da pesquisa.xlsx
+++ b/Controle da pesquisa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Desktop\pesquisa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBFB442-C031-44D3-804B-DD7FF8CC5D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7AE7BF-621E-460B-92A8-490CB7158CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="645" windowWidth="10935" windowHeight="10635" xr2:uid="{DF8D05E7-708D-4EFC-AA27-4324DDD27F39}"/>
+    <workbookView xWindow="390" yWindow="270" windowWidth="10935" windowHeight="10635" xr2:uid="{DF8D05E7-708D-4EFC-AA27-4324DDD27F39}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A8A4C0-971A-4AC7-A34D-905FBDF78CC8}">
   <dimension ref="A1:C280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="C218" sqref="C218"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="C227" sqref="C227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2837,6 +2837,9 @@
       <c r="B218" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C218">
+        <v>628</v>
+      </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
@@ -2845,6 +2848,9 @@
       <c r="B219" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C219">
+        <v>2103</v>
+      </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
@@ -2853,6 +2859,9 @@
       <c r="B220" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C220">
+        <v>645</v>
+      </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
@@ -2861,6 +2870,9 @@
       <c r="B221" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C221">
+        <v>4167</v>
+      </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
@@ -2869,6 +2881,9 @@
       <c r="B222" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C222">
+        <v>1835</v>
+      </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
@@ -2877,6 +2892,9 @@
       <c r="B223" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C223">
+        <v>658</v>
+      </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
@@ -2885,24 +2903,33 @@
       <c r="B224" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C224">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>45590</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C225">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>45590</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C226">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>45591</v>
       </c>
@@ -2910,7 +2937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>45591</v>
       </c>
@@ -2918,7 +2945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>45591</v>
       </c>
@@ -2926,7 +2953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>45591</v>
       </c>
@@ -2934,7 +2961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>45591</v>
       </c>
@@ -2942,7 +2969,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>45591</v>
       </c>
@@ -2950,7 +2977,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>45591</v>
       </c>
@@ -2958,7 +2985,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>45591</v>
       </c>
@@ -2966,7 +2993,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>45591</v>
       </c>
@@ -2974,7 +3001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>45592</v>
       </c>
@@ -2982,7 +3009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>45592</v>
       </c>
@@ -2990,7 +3017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>45592</v>
       </c>
@@ -2998,7 +3025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>45592</v>
       </c>
@@ -3006,7 +3033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>45592</v>
       </c>

--- a/Controle da pesquisa.xlsx
+++ b/Controle da pesquisa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Desktop\pesquisa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7AE7BF-621E-460B-92A8-490CB7158CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADB582C-3E62-42E5-A181-DB0E8DF36F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="270" windowWidth="10935" windowHeight="10635" xr2:uid="{DF8D05E7-708D-4EFC-AA27-4324DDD27F39}"/>
   </bookViews>
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A8A4C0-971A-4AC7-A34D-905FBDF78CC8}">
   <dimension ref="A1:C280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="C227" sqref="C227"/>
+    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
+      <selection activeCell="C236" sqref="C236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2936,6 +2936,9 @@
       <c r="B227" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C227">
+        <v>895</v>
+      </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
@@ -2944,6 +2947,9 @@
       <c r="B228" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C228">
+        <v>2197</v>
+      </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
@@ -2952,6 +2958,9 @@
       <c r="B229" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C229">
+        <v>659</v>
+      </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
@@ -2960,6 +2969,9 @@
       <c r="B230" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C230">
+        <v>4122</v>
+      </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
@@ -2968,6 +2980,9 @@
       <c r="B231" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C231">
+        <v>2831</v>
+      </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
@@ -2976,6 +2991,9 @@
       <c r="B232" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C232">
+        <v>807</v>
+      </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
@@ -2984,6 +3002,9 @@
       <c r="B233" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="C233">
+        <v>1400</v>
+      </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
@@ -2992,6 +3013,9 @@
       <c r="B234" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C234">
+        <v>1451</v>
+      </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
@@ -2999,6 +3023,9 @@
       </c>
       <c r="B235" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="C235">
+        <v>969</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">

--- a/Controle da pesquisa.xlsx
+++ b/Controle da pesquisa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Desktop\pesquisa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADB582C-3E62-42E5-A181-DB0E8DF36F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99D5EC4-5836-4358-BCF9-D4D4F3F9FC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="270" windowWidth="10935" windowHeight="10635" xr2:uid="{DF8D05E7-708D-4EFC-AA27-4324DDD27F39}"/>
+    <workbookView xWindow="540" yWindow="270" windowWidth="9855" windowHeight="10785" xr2:uid="{DF8D05E7-708D-4EFC-AA27-4324DDD27F39}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A8A4C0-971A-4AC7-A34D-905FBDF78CC8}">
   <dimension ref="A1:C280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="C236" sqref="C236"/>
+    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
+      <selection activeCell="C245" sqref="C245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3035,6 +3035,9 @@
       <c r="B236" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C236">
+        <v>1011</v>
+      </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
@@ -3043,6 +3046,9 @@
       <c r="B237" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C237">
+        <v>3706</v>
+      </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
@@ -3051,6 +3057,9 @@
       <c r="B238" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C238">
+        <v>564</v>
+      </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
@@ -3059,6 +3068,9 @@
       <c r="B239" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C239">
+        <v>3975</v>
+      </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
@@ -3067,40 +3079,55 @@
       <c r="B240" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C240">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>45592</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C241">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>45592</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C242">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>45592</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C243">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>45592</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C244">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>45593</v>
       </c>
@@ -3108,7 +3135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>45593</v>
       </c>
@@ -3116,7 +3143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>45593</v>
       </c>
@@ -3124,7 +3151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>45593</v>
       </c>
@@ -3132,7 +3159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>45593</v>
       </c>
@@ -3140,7 +3167,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>45593</v>
       </c>
@@ -3148,7 +3175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>45593</v>
       </c>
@@ -3156,7 +3183,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>45593</v>
       </c>
@@ -3164,7 +3191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>45593</v>
       </c>
@@ -3172,7 +3199,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>45594</v>
       </c>
@@ -3180,7 +3207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>45594</v>
       </c>
@@ -3188,7 +3215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>45594</v>
       </c>

--- a/Controle da pesquisa.xlsx
+++ b/Controle da pesquisa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Desktop\pesquisa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99D5EC4-5836-4358-BCF9-D4D4F3F9FC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D63588C-1CAE-44E5-BD0E-698E4C734D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="270" windowWidth="9855" windowHeight="10785" xr2:uid="{DF8D05E7-708D-4EFC-AA27-4324DDD27F39}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="9150" windowHeight="10320" xr2:uid="{DF8D05E7-708D-4EFC-AA27-4324DDD27F39}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -432,7 +432,7 @@
   <dimension ref="A1:C280"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
-      <selection activeCell="C245" sqref="C245"/>
+      <selection activeCell="C254" sqref="C254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3134,6 +3134,9 @@
       <c r="B245" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C245">
+        <v>907</v>
+      </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
@@ -3142,6 +3145,9 @@
       <c r="B246" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C246">
+        <v>1293</v>
+      </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
@@ -3150,6 +3156,9 @@
       <c r="B247" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C247">
+        <v>547</v>
+      </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
@@ -3158,6 +3167,9 @@
       <c r="B248" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C248">
+        <v>3823</v>
+      </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
@@ -3166,6 +3178,9 @@
       <c r="B249" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C249">
+        <v>2707</v>
+      </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
@@ -3174,6 +3189,9 @@
       <c r="B250" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C250">
+        <v>680</v>
+      </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
@@ -3182,6 +3200,9 @@
       <c r="B251" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="C251">
+        <v>1481</v>
+      </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
@@ -3190,6 +3211,9 @@
       <c r="B252" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C252">
+        <v>1349</v>
+      </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
@@ -3197,6 +3221,9 @@
       </c>
       <c r="B253" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="C253">
+        <v>872</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">

--- a/Controle da pesquisa.xlsx
+++ b/Controle da pesquisa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Desktop\pesquisa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D63588C-1CAE-44E5-BD0E-698E4C734D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC576887-35D8-4AFE-9C2D-0CA5948DDFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="9150" windowHeight="10320" xr2:uid="{DF8D05E7-708D-4EFC-AA27-4324DDD27F39}"/>
   </bookViews>
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A8A4C0-971A-4AC7-A34D-905FBDF78CC8}">
   <dimension ref="A1:C280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
-      <selection activeCell="C254" sqref="C254"/>
+    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
+      <selection activeCell="C263" sqref="C263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3233,6 +3233,9 @@
       <c r="B254" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C254">
+        <v>631</v>
+      </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
@@ -3241,6 +3244,9 @@
       <c r="B255" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C255">
+        <v>1452</v>
+      </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
@@ -3249,56 +3255,77 @@
       <c r="B256" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C256">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>45594</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C257">
+        <v>3913</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>45594</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C258">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>45594</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C259">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>45594</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C260">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>45594</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C261">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>45594</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C262">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>45595</v>
       </c>
@@ -3306,7 +3333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>45595</v>
       </c>
@@ -3314,7 +3341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>45595</v>
       </c>
@@ -3322,7 +3349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>45595</v>
       </c>
@@ -3330,7 +3357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>45595</v>
       </c>
@@ -3338,7 +3365,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>45595</v>
       </c>
@@ -3346,7 +3373,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>45595</v>
       </c>
@@ -3354,7 +3381,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>45595</v>
       </c>
@@ -3362,7 +3389,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>45595</v>
       </c>
@@ -3370,7 +3397,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>45596</v>
       </c>

--- a/Controle da pesquisa.xlsx
+++ b/Controle da pesquisa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Desktop\pesquisa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC576887-35D8-4AFE-9C2D-0CA5948DDFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7CEBA1-3712-4D5C-A702-9EA6172438B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="9150" windowHeight="10320" xr2:uid="{DF8D05E7-708D-4EFC-AA27-4324DDD27F39}"/>
   </bookViews>
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A8A4C0-971A-4AC7-A34D-905FBDF78CC8}">
   <dimension ref="A1:C280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
-      <selection activeCell="C263" sqref="C263"/>
+    <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
+      <selection activeCell="C272" sqref="C272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3332,6 +3332,9 @@
       <c r="B263" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C263">
+        <v>600</v>
+      </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
@@ -3340,6 +3343,9 @@
       <c r="B264" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C264">
+        <v>1151</v>
+      </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
@@ -3348,6 +3354,9 @@
       <c r="B265" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C265">
+        <v>571</v>
+      </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
@@ -3356,6 +3365,9 @@
       <c r="B266" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C266">
+        <v>3766</v>
+      </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
@@ -3364,6 +3376,9 @@
       <c r="B267" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C267">
+        <v>2186</v>
+      </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
@@ -3372,6 +3387,9 @@
       <c r="B268" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C268">
+        <v>1248</v>
+      </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
@@ -3380,6 +3398,9 @@
       <c r="B269" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="C269">
+        <v>1931</v>
+      </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
@@ -3388,6 +3409,9 @@
       <c r="B270" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C270">
+        <v>1832</v>
+      </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
@@ -3395,6 +3419,9 @@
       </c>
       <c r="B271" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="C271">
+        <v>570</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">

--- a/Controle da pesquisa.xlsx
+++ b/Controle da pesquisa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Desktop\pesquisa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7CEBA1-3712-4D5C-A702-9EA6172438B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B2CC8B-72EE-487E-9054-053C5062D16F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="9150" windowHeight="10320" xr2:uid="{DF8D05E7-708D-4EFC-AA27-4324DDD27F39}"/>
   </bookViews>
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A8A4C0-971A-4AC7-A34D-905FBDF78CC8}">
   <dimension ref="A1:C280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
-      <selection activeCell="C272" sqref="C272"/>
+    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
+      <selection activeCell="C281" sqref="C281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3431,69 +3431,96 @@
       <c r="B272" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C272">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>45596</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C273">
+        <v>4920</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>45596</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C274">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>45596</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C275">
+        <v>3551</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>45596</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C276">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>45596</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C277">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>45596</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C278">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>45596</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C279">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>45596</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="C280">
+        <v>587</v>
       </c>
     </row>
   </sheetData>
